--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
   <si>
     <t>devi.sharmila37@gmail.com</t>
   </si>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>devi.sharmila37@gmail.com</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>0851423</t>
+  </si>
+  <si>
+    <t>bvhj</t>
+  </si>
+  <si>
+    <t>hghj</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>devi.sharmila37@gmail.com</t>
   </si>
@@ -406,10 +406,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>devi.sharmila37@gmail.com</t>
   </si>
@@ -36,20 +36,23 @@
     <t>raghuraj.v5@gmail.com</t>
   </si>
   <si>
-    <t>0851423</t>
-  </si>
-  <si>
-    <t>bvhj</t>
-  </si>
-  <si>
-    <t>hghj</t>
+    <t>Selenium testing_sendMailANdDelete</t>
+  </si>
+  <si>
+    <t>hi
+   I have automated given testcase 
+1.Login to gmail 
+2.Send a mail and Delete
+3.verify confirmation msg
+ please review once
+Regards
+sharmila</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -84,30 +87,30 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -116,10 +119,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -275,7 +278,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -284,13 +287,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -300,7 +303,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -309,7 +312,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -318,7 +321,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,12 +331,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -364,7 +367,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -383,7 +386,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -396,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -404,7 +407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,27 +416,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="41.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="43.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="52.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="52.42578125" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="84" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="84" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -445,14 +448,30 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="B1"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -464,6 +483,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>